--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -789,13 +789,13 @@
         <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -816,7 +816,7 @@
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -867,7 +867,7 @@
         <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.1</v>
@@ -965,10 +965,10 @@
         <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -977,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -992,25 +992,25 @@
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>29</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -1046,7 +1046,7 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1129,10 +1129,10 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1213,13 +1213,13 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -941,7 +941,7 @@
         <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -959,10 +959,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -971,10 +971,10 @@
         <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -995,10 +995,10 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1043,7 +1043,7 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
         <v>3.25</v>
@@ -1058,13 +1058,13 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1132,7 +1132,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1141,10 +1141,10 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1159,16 +1159,16 @@
         <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1210,16 +1210,16 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1237,10 +1237,10 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -756,7 +756,7 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -783,19 +783,19 @@
         <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -864,10 +864,10 @@
         <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -879,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
@@ -888,7 +888,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -959,10 +959,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1141,10 +1141,10 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1180,7 +1180,7 @@
         <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1195,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,261 @@
           <t>Away</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_H_FT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_D_FT</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_A_FT</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_H_HT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_D_HT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_A_HT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over15_FT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under15_FT</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over25_FT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under25_FT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0_HT</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0_HT</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1_HT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0_HT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1_HT</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0_HT</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1_HT</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2_HT</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>n5QIb4zp</t>
+          <t>OKQqJDOt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,29 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
-        </is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rXJRdr5d</t>
+          <t>U9HRzAsQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,183 +910,173 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Urooba</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dibba Al Hisn</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>8jmW78Dc</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Al Wahda</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Al Bataeh</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>f7ov6nrA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Al Wasl</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Al Sharjah</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>dCJDkRcT</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ittihad Kalba</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bani Yas</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>jZvm4QCM</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Khorfakkan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ajman</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SfAqp5Lj</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Shabab Al-Ahli Dubai</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Al Jazira</t>
-        </is>
+          <t>Venlo</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -959,10 +959,10 @@
         <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S3" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -771,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2.88</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,40 +762,40 @@
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -813,13 +813,13 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>5.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -864,10 +864,10 @@
         <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -879,10 +879,10 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -950,7 +950,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -777,16 +777,16 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>4.33</v>
@@ -789,16 +789,16 @@
         <v>2.08</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -807,22 +807,22 @@
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
@@ -834,13 +834,13 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -864,19 +864,19 @@
         <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -885,7 +885,7 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -950,7 +950,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -783,10 +783,10 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -1077,6 +1077,188 @@
       </c>
       <c r="BD3" t="n">
         <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>xnZHH4vp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sol de America</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -950,19 +950,19 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S3" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -932,16 +932,16 @@
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
@@ -965,10 +965,10 @@
         <v>2.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -995,10 +995,10 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1013,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1046,19 +1046,19 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -980,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -1016,28 +1016,28 @@
         <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1049,10 +1049,10 @@
         <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1141,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.05</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1055,10 +1055,10 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.05</v>
@@ -944,7 +944,7 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1010,7 +1010,7 @@
         <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>29</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
         <v>3.75</v>
@@ -1034,7 +1034,7 @@
         <v>7.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>21</v>
@@ -1052,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -959,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -986,10 +986,10 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
         <v>3.75</v>
@@ -1052,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -1013,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>17</v>
@@ -1064,7 +1064,7 @@
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -783,10 +783,10 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -1141,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -783,10 +783,10 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
@@ -977,7 +977,7 @@
         <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>8.5</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -1013,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>17</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
         <v>3.75</v>
@@ -1052,19 +1052,19 @@
         <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
         <v>7.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -771,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>3.4</v>
@@ -792,7 +792,7 @@
         <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -947,22 +947,22 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -771,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
         <v>3.4</v>
@@ -792,7 +792,7 @@
         <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -783,10 +783,10 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -947,22 +947,22 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -783,10 +783,10 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -798,13 +798,13 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -813,13 +813,13 @@
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>101</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -852,13 +852,13 @@
         <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
         <v>351</v>
@@ -867,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
         <v>101</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2.05</v>
@@ -944,7 +944,7 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -971,16 +971,16 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -989,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1049,13 +1049,13 @@
         <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -947,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -777,34 +777,34 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -813,13 +813,13 @@
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>101</v>
@@ -831,16 +831,16 @@
         <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -852,10 +852,10 @@
         <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>126</v>
@@ -867,13 +867,13 @@
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -882,10 +882,10 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -953,22 +953,22 @@
         <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.62</v>
@@ -980,25 +980,25 @@
         <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1013,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>17</v>
@@ -1025,13 +1025,13 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
@@ -1043,22 +1043,22 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -777,10 +777,10 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>1.73</v>
@@ -935,13 +935,13 @@
         <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -959,10 +959,10 @@
         <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -971,10 +971,10 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
@@ -998,10 +998,10 @@
         <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1064,7 +1064,7 @@
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OKQqJDOt</t>
+          <t>xnZHH4vp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,536 +728,172 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
       </c>
       <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
         <v>67</v>
       </c>
-      <c r="AR2" t="n">
-        <v>126</v>
-      </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>U9HRzAsQ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Telstar</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Venlo</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>19</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>xnZHH4vp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sol de America</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sportivo Trinidense</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -870,7 +870,7 @@
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -882,10 +882,10 @@
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xnZHH4vp</t>
+          <t>OKQqJDOt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,172 +728,536 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>21</v>
       </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
         <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
       </c>
       <c r="BA2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>U9HRzAsQ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Venlo</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>101</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BA3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>xnZHH4vp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sol de America</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
         <v>251</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>
